--- a/docs/excel/TShop.xlsx
+++ b/docs/excel/TShop.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN-H5\JumpJump\docs\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201F10AF-A5ED-49CC-B5D2-FF5197DF49C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TShop" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -114,10 +108,6 @@
   </si>
   <si>
     <t>TableName: "TShop" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,11 +161,15 @@
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -256,7 +250,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,11 +586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -612,13 +606,13 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -632,13 +626,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -669,13 +663,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -695,7 +689,7 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -721,7 +715,7 @@
         <v>3017</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -747,7 +741,7 @@
         <v>3018</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -773,7 +767,7 @@
         <v>3019</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -799,7 +793,7 @@
         <v>3020</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -825,7 +819,7 @@
         <v>3021</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -975,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
